--- a/biology/Microbiologie/Hemispeiridae/Hemispeiridae.xlsx
+++ b/biology/Microbiologie/Hemispeiridae/Hemispeiridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hemispeiridae sont une famille de ciliés de la classe des Oligohymenophorea et de l'ordre des Scuticociliatida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Hemispeira, dérivé du grec ancien ἡμι- / imi-, « semi, demi », et de σπειρ / speir, « spirale », littéralement « semi spiralé », en référence à la « polycinétie fortement courbée située en région, buccale » que présente ce cilié.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hemispeiridae ont une petite taille (&lt; 80 µm). Leur forme est ovoïde, parfois allongée. Ils nagent librement, mais généralement sont attachés à un hôte. Leur ciliation somatique est holotriche (c. à d. homogène), mais réduite à un petit nombre de cinéties spiralées chez de nombreuses espèces, et devenant obliques et même presque horizontales chez certaines. Ils présentent une aire thigmotactique distincte ; des cinéties dorsales réduites enfermées dans un système sécant, très prononcé chez certains genres. Leur région buccale se situe dans le tiers postérieur du corps, avec une ciliature souvent réduite, avec au moins un polycinétie oral 2 allant d’une forme de crochet, à une forme fortement courbée, s'enroulant derrière le cytostome et, à leur extrêmité, courbé jusqu'à bien au-delà de la moitié du tour du pôle postérieur. Leur macronoyau est globulaire à ellipsoïde. Micronoyau, et vacuole contractile sont présents. Le cytoprocte n’a pas été observé. Ils sont détritivores et, peut-être, bactérivores [1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hemispeiridae ont une petite taille (&lt; 80 µm). Leur forme est ovoïde, parfois allongée. Ils nagent librement, mais généralement sont attachés à un hôte. Leur ciliation somatique est holotriche (c. à d. homogène), mais réduite à un petit nombre de cinéties spiralées chez de nombreuses espèces, et devenant obliques et même presque horizontales chez certaines. Ils présentent une aire thigmotactique distincte ; des cinéties dorsales réduites enfermées dans un système sécant, très prononcé chez certains genres. Leur région buccale se situe dans le tiers postérieur du corps, avec une ciliature souvent réduite, avec au moins un polycinétie oral 2 allant d’une forme de crochet, à une forme fortement courbée, s'enroulant derrière le cytostome et, à leur extrêmité, courbé jusqu'à bien au-delà de la moitié du tour du pôle postérieur. Leur macronoyau est globulaire à ellipsoïde. Micronoyau, et vacuole contractile sont présents. Le cytoprocte n’a pas été observé. Ils sont détritivores et, peut-être, bactérivores .
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hemispeiridae vivent en eau salée et douce comme commensaux dans les replis du manteau  des mollusques et sur le tégument de certains échinodermes ou dans les arcs respiratoires des échinodermes holothuries[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hemispeiridae vivent en eau salée et douce comme commensaux dans les replis du manteau  des mollusques et sur le tégument de certains échinodermes ou dans les arcs respiratoires des échinodermes holothuries.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (13 mai 2024)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (13 mai 2024) :
 Ancistrospira Chatton &amp; Lwoff, 1926
 Fenchelia Raabe, 1970
 Hemispeira Fabre-Domergue, 1888 genre type
@@ -615,7 +635,7 @@
 Plagiospira Issel, 1903
 Proboveria Chatton &amp; Lwoff, 1936
 Semiboveria Raabe, 1970
-Selon Lynn (2010)[1]
+Selon Lynn (2010)
 Ancistrospira Chatton &amp; Lwoff, 1926
 Boveria Stevens, 1901
 Cheissinia Chatton &amp; Lwoff, 1949
@@ -650,9 +670,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Hemispeiridae König, 1894[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Hemispeiridae König, 1894.
 </t>
         </is>
       </c>
